--- a/tests/data.scripts/test/calorimetry/ds.10.ampoule.no.opt/data.xlsx
+++ b/tests/data.scripts/test/calorimetry/ds.10.ampoule.no.opt/data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">M</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t xml:space="preserve">SMAPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RMSE</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -1081,15 +1084,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -1097,16 +1100,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1506,7 +1509,7 @@
         <v>34</v>
       </c>
       <c r="B3" t="n">
-        <v>0.00111954606999985</v>
+        <v>0.000914105538345951</v>
       </c>
     </row>
     <row r="4">
@@ -1515,6 +1518,14 @@
       </c>
       <c r="B4" t="n">
         <v>0.000792263715949105</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.0752689735366362</v>
       </c>
     </row>
   </sheetData>
@@ -1545,21 +1556,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" t="s">
-        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1567,16 +1578,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
@@ -1584,16 +1595,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -1601,16 +1612,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1618,16 +1629,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1635,16 +1646,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
         <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1652,16 +1663,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
         <v>38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1669,16 +1680,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1686,16 +1697,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1717,19 +1728,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1751,16 +1762,16 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
         <v>23</v>
@@ -1768,16 +1779,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
         <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" t="s">
-        <v>47</v>
       </c>
       <c r="E4" t="s">
         <v>23</v>
@@ -1785,16 +1796,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -1802,16 +1813,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -1819,16 +1830,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
         <v>25</v>
@@ -1836,16 +1847,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" t="s">
-        <v>47</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1853,16 +1864,16 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1870,16 +1881,16 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" t="s">
-        <v>51</v>
       </c>
       <c r="E10" t="s">
         <v>26</v>
@@ -1887,16 +1898,16 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
@@ -1904,16 +1915,16 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" t="s">
         <v>28</v>
@@ -1921,36 +1932,36 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>51</v>
-      </c>
       <c r="E14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1980,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
